--- a/database/Group6_Data Dictionary.xlsx
+++ b/database/Group6_Data Dictionary.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="82">
   <si>
     <t>Type</t>
   </si>
@@ -258,7 +258,16 @@
     <t>CLASS END DATE</t>
   </si>
   <si>
-    <t>FK to GRADE: GR_CODE</t>
+    <t>ACC_SCHOOLNAME</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>FK to GRADE: GRD_CODE</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,6 +849,20 @@
       </c>
       <c r="H15" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +882,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
@@ -940,6 +963,28 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -959,7 +1004,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
@@ -1076,7 +1121,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -1339,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,35 +1478,24 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1479,7 +1513,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,6 +1587,12 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
@@ -1564,8 +1604,14 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
